--- a/fuels_guide/fuels_guide_table_tidy.xlsx
+++ b/fuels_guide/fuels_guide_table_tidy.xlsx
@@ -213,7 +213,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -237,16 +237,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -258,10 +271,10 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -270,19 +283,133 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -293,199 +420,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -494,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -509,72 +496,69 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -585,6 +569,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -865,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection sqref="A1:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -878,63 +870,63 @@
     <col min="3" max="3" width="16.05078125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.100000000000001" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:6" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="35"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A2" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="31" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="31"/>
-      <c r="B4" s="28"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="6"/>
       <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="16"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="31"/>
-      <c r="B5" s="28" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -942,41 +934,41 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="31"/>
-      <c r="B6" s="28"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="6"/>
       <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="31"/>
-      <c r="B7" s="28"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="6"/>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="16"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="31"/>
-      <c r="B8" s="28"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="31"/>
-      <c r="B9" s="28" t="s">
+      <c r="A9" s="25"/>
+      <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
@@ -984,30 +976,30 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="31"/>
-      <c r="B10" s="28"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="6"/>
       <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="31"/>
-      <c r="B11" s="28"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="31"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="5" t="s">
         <v>24</v>
       </c>
@@ -1016,47 +1008,47 @@
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="32"/>
-      <c r="B13" s="19" t="s">
+      <c r="A13" s="26"/>
+      <c r="B13" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="15"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="24" t="s">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="25"/>
-      <c r="B15" s="28"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="6"/>
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="16"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="25"/>
-      <c r="B16" s="28" t="s">
+      <c r="A16" s="15"/>
+      <c r="B16" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
@@ -1064,85 +1056,85 @@
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="25"/>
-      <c r="B17" s="28"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="6"/>
       <c r="C17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="25"/>
-      <c r="B18" s="28"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="6"/>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="16"/>
     </row>
     <row r="19" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="26"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="17" t="s">
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="24" t="s">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+    </row>
+    <row r="20" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="12"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="23"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="25"/>
-      <c r="B21" s="28"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="6"/>
       <c r="C21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="13"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="25"/>
-      <c r="B22" s="28"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="13"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="25"/>
-      <c r="B23" s="28"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="13"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="25"/>
-      <c r="B24" s="28" t="s">
+      <c r="A24" s="15"/>
+      <c r="B24" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -1150,65 +1142,65 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="26"/>
-      <c r="B25" s="29"/>
-      <c r="C25" s="17" t="s">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="15"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="24" t="s">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="25"/>
-      <c r="B27" s="28"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="6"/>
       <c r="C27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="25"/>
-      <c r="B28" s="28"/>
+      <c r="A28" s="15"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="25"/>
-      <c r="B29" s="28"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="6"/>
       <c r="C29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="25"/>
-      <c r="B30" s="28" t="s">
+      <c r="A30" s="15"/>
+      <c r="B30" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -1216,21 +1208,21 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
-      <c r="F30" s="13"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="25"/>
-      <c r="B31" s="28"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="25"/>
-      <c r="B32" s="28" t="s">
+      <c r="A32" s="15"/>
+      <c r="B32" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -1238,31 +1230,31 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="25"/>
-      <c r="B33" s="28"/>
+      <c r="A33" s="15"/>
+      <c r="B33" s="6"/>
       <c r="C33" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="16"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="25"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="6"/>
       <c r="C34" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="13"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="25"/>
-      <c r="B35" s="28" t="s">
+      <c r="A35" s="15"/>
+      <c r="B35" s="6" t="s">
         <v>28</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -1270,84 +1262,84 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="13"/>
+      <c r="F35" s="16"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="25"/>
-      <c r="B36" s="28"/>
+      <c r="A36" s="15"/>
+      <c r="B36" s="6"/>
       <c r="C36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="13"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="25"/>
-      <c r="B37" s="28"/>
+      <c r="A37" s="15"/>
+      <c r="B37" s="6"/>
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="13"/>
+      <c r="F37" s="16"/>
     </row>
     <row r="38" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="26"/>
-      <c r="B38" s="29"/>
-      <c r="C38" s="17" t="s">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="24" t="s">
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="21"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="27" t="s">
+      <c r="B39" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="25"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="15"/>
+      <c r="B40" s="6"/>
       <c r="C40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="13"/>
+      <c r="F40" s="16"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="25"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="15"/>
+      <c r="B41" s="6"/>
       <c r="C41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="13"/>
+      <c r="F41" s="16"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="25"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="15"/>
+      <c r="B42" s="6"/>
       <c r="C42" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="13"/>
+      <c r="F42" s="16"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="25"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="2" t="s">
         <v>12</v>
       </c>
@@ -1356,44 +1348,37 @@
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="13"/>
+      <c r="F43" s="16"/>
     </row>
     <row r="44" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="26"/>
-      <c r="B44" s="16" t="s">
+      <c r="A44" s="17"/>
+      <c r="B44" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="15"/>
-    </row>
-    <row r="45" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="10" t="s">
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="23"/>
-    </row>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B11"/>
     <mergeCell ref="A39:A44"/>
     <mergeCell ref="B39:B42"/>
     <mergeCell ref="B24:B25"/>
@@ -1404,6 +1389,14 @@
     <mergeCell ref="B26:B29"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="A26:A38"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:A13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B5:B8"/>
+    <mergeCell ref="B9:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/fuels_guide/fuels_guide_table_tidy.xlsx
+++ b/fuels_guide/fuels_guide_table_tidy.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="38">
   <si>
     <t xml:space="preserve">Min </t>
   </si>
@@ -50,18 +51,12 @@
     <t>Shrubs</t>
   </si>
   <si>
-    <t>ARTRV</t>
-  </si>
-  <si>
     <t>ARTRW8</t>
   </si>
   <si>
     <t>CHVI8</t>
   </si>
   <si>
-    <t>PUTR2</t>
-  </si>
-  <si>
     <t>Herbaceous</t>
   </si>
   <si>
@@ -110,12 +105,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Shrub</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTRV </t>
-  </si>
-  <si>
     <t>Density (#/acre)</t>
   </si>
   <si>
@@ -138,9 +127,6 @@
   </si>
   <si>
     <t>ARTW8</t>
-  </si>
-  <si>
-    <t>Live + Dead</t>
   </si>
   <si>
     <r>
@@ -167,10 +153,13 @@
     </r>
   </si>
   <si>
-    <t>Depth (in)</t>
-  </si>
-  <si>
     <t>Control Phase 2</t>
+  </si>
+  <si>
+    <t>Total (live + dead)</t>
+  </si>
+  <si>
+    <t>PUST</t>
   </si>
 </sst>
 </file>
@@ -213,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -250,7 +239,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -268,7 +257,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thick">
@@ -280,13 +269,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -295,10 +284,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -310,21 +299,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="64"/>
       </left>
@@ -475,108 +449,127 @@
       <bottom style="thick">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -857,10 +850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:F45"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -871,534 +864,477 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
+      <c r="A1" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="33"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="29"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="29"/>
+      <c r="B5" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="29"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="29"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="29"/>
+      <c r="B8" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="29"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="29"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="29"/>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A12" s="30"/>
+      <c r="B12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="21"/>
+      <c r="B15" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="22"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B18" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="29"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="29"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="29"/>
+      <c r="B21" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="14"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="25"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="16"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="25"/>
-      <c r="B5" s="6" t="s">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A22" s="30"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="16"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="25"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3" t="s">
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="29"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="16"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="25"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3" t="s">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="29"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="29"/>
+      <c r="B26" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="16"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="25"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="16"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="25"/>
-      <c r="B9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="25"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3" t="s">
+      <c r="C26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="29"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="29"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="29"/>
+      <c r="B29" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="29"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="29"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="29"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="29"/>
+      <c r="B33" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="25"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="25"/>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="26"/>
-      <c r="B13" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="21"/>
-    </row>
-    <row r="14" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="22" t="s">
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A34" s="30"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="23"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="15"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="15"/>
-      <c r="B16" s="6" t="s">
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="13"/>
+    </row>
+    <row r="35" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C35" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="15"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3" t="s">
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="29"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="15"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3" t="s">
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="29"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A38" s="30"/>
+      <c r="B38" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="15"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="15"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="16"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="15"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="15"/>
-      <c r="B24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="3" t="s">
+      <c r="C38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A25" s="17"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="15"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="15"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="15"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="15"/>
-      <c r="B30" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="15"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="15"/>
-      <c r="B32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="15"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="16"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="15"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="16"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="15"/>
-      <c r="B35" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="16"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="15"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="16"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="15"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="16"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="21"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
+      <c r="A39"/>
+      <c r="B39"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="15"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="16"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="15"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="16"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="15"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="16"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="15"/>
-      <c r="B43" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="16"/>
-    </row>
-    <row r="44" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A44" s="17"/>
-      <c r="B44" s="35" t="s">
-        <v>24</v>
-      </c>
-      <c r="C44" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A45" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="B45" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D45" s="37"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="38"/>
-    </row>
-    <row r="46" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+      <c r="A40"/>
+      <c r="B40"/>
+    </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A39:A44"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A20:A25"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B26:B29"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A13:A17"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:A13"/>
-    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="B13:B14"/>
     <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B29:B32"/>
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/fuels_guide/fuels_guide_table_tidy.xlsx
+++ b/fuels_guide/fuels_guide_table_tidy.xlsx
@@ -525,44 +525,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -853,7 +853,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -864,14 +864,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="33"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="1:6" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="16" t="s">
@@ -894,10 +894,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -908,8 +908,8 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="29"/>
-      <c r="B4" s="24"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
@@ -918,8 +918,8 @@
       <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="29"/>
-      <c r="B5" s="24" t="s">
+      <c r="A5" s="30"/>
+      <c r="B5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -930,8 +930,8 @@
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="29"/>
-      <c r="B6" s="24"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
@@ -940,8 +940,8 @@
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="29"/>
-      <c r="B7" s="24"/>
+      <c r="A7" s="30"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
@@ -950,8 +950,8 @@
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="29"/>
-      <c r="B8" s="24" t="s">
+      <c r="A8" s="30"/>
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -962,8 +962,8 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="29"/>
-      <c r="B9" s="24"/>
+      <c r="A9" s="30"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
@@ -972,8 +972,8 @@
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="29"/>
-      <c r="B10" s="24"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
@@ -982,7 +982,7 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="29"/>
+      <c r="A11" s="30"/>
       <c r="B11" s="4" t="s">
         <v>22</v>
       </c>
@@ -994,7 +994,7 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="30"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="15" t="s">
         <v>15</v>
       </c>
@@ -1006,10 +1006,10 @@
       <c r="F12" s="13"/>
     </row>
     <row r="13" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="32" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -1020,8 +1020,8 @@
       <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="2" t="s">
         <v>6</v>
       </c>
@@ -1030,8 +1030,8 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="21"/>
-      <c r="B15" s="24" t="s">
+      <c r="A15" s="24"/>
+      <c r="B15" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1042,8 +1042,8 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="21"/>
-      <c r="B16" s="24"/>
+      <c r="A16" s="24"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1052,8 +1052,8 @@
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A17" s="22"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="25"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="11" t="s">
         <v>37</v>
       </c>
@@ -1062,10 +1062,10 @@
       <c r="F17" s="13"/>
     </row>
     <row r="18" spans="1:6" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="21" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -1076,8 +1076,8 @@
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="29"/>
-      <c r="B19" s="24"/>
+      <c r="A19" s="30"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1086,8 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="29"/>
-      <c r="B20" s="24"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="21"/>
       <c r="C20" s="2" t="s">
         <v>37</v>
       </c>
@@ -1096,8 +1096,8 @@
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="29"/>
-      <c r="B21" s="24" t="s">
+      <c r="A21" s="30"/>
+      <c r="B21" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1108,8 +1108,8 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A22" s="30"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="11" t="s">
         <v>13</v>
       </c>
@@ -1118,7 +1118,7 @@
       <c r="F22" s="13"/>
     </row>
     <row r="23" spans="1:6" ht="15.9" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B23" s="34" t="s">
@@ -1132,7 +1132,7 @@
       <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="29"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="35"/>
       <c r="C24" s="2" t="s">
         <v>9</v>
@@ -1142,8 +1142,8 @@
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="29"/>
-      <c r="B25" s="26"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="2" t="s">
         <v>37</v>
       </c>
@@ -1152,8 +1152,8 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="29"/>
-      <c r="B26" s="24" t="s">
+      <c r="A26" s="30"/>
+      <c r="B26" s="21" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -1164,8 +1164,8 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="29"/>
-      <c r="B27" s="24"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="2" t="s">
         <v>24</v>
       </c>
@@ -1174,8 +1174,8 @@
       <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="29"/>
-      <c r="B28" s="24"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="2" t="s">
         <v>25</v>
       </c>
@@ -1184,8 +1184,8 @@
       <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="29"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="30"/>
+      <c r="B29" s="32" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -1196,8 +1196,8 @@
       <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="29"/>
-      <c r="B30" s="24"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="2" t="s">
         <v>19</v>
       </c>
@@ -1206,8 +1206,8 @@
       <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="29"/>
-      <c r="B31" s="24"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="2" t="s">
         <v>20</v>
       </c>
@@ -1216,8 +1216,8 @@
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="29"/>
-      <c r="B32" s="24"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
@@ -1226,8 +1226,8 @@
       <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="29"/>
-      <c r="B33" s="24" t="s">
+      <c r="A33" s="30"/>
+      <c r="B33" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -1238,8 +1238,8 @@
       <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A34" s="30"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="22"/>
       <c r="C34" s="11" t="s">
         <v>30</v>
       </c>
@@ -1248,7 +1248,7 @@
       <c r="F34" s="13"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="29" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="34" t="s">
@@ -1262,7 +1262,7 @@
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="29"/>
+      <c r="A36" s="30"/>
       <c r="B36" s="35"/>
       <c r="C36" s="2" t="s">
         <v>9</v>
@@ -1272,8 +1272,8 @@
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="29"/>
-      <c r="B37" s="26"/>
+      <c r="A37" s="30"/>
+      <c r="B37" s="32"/>
       <c r="C37" s="2" t="s">
         <v>37</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A38" s="30"/>
+      <c r="A38" s="31"/>
       <c r="B38" s="20" t="s">
         <v>10</v>
       </c>
@@ -1303,6 +1303,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A23:A34"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B35:B37"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B29:B32"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A13:A17"/>
     <mergeCell ref="A1:F1"/>
@@ -1311,16 +1321,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="A18:A22"/>
-    <mergeCell ref="A23:A34"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B35:B37"/>
-    <mergeCell ref="A35:A38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
